--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.81</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.71</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007107</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>007107</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>太平 MSCI 香港价值增强指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.03</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,26 +806,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +868,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +908,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -828,15 +946,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.82</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.66</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -884,15 +1022,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -902,25 +1050,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -940,15 +1098,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.63</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -968,15 +1136,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.66</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -986,26 +1164,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007108</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005883</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>华宝港股通香港精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1052,15 +1250,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.57</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.74</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1070,26 +1278,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>007108</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>74.11</t>
-        </is>
-      </c>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,6 @@
           <t>太平 MSCI 香港价值增强指数C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>93.66</t>
@@ -1301,6 +1301,516 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1817,4 +1818,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2444,4 +2445,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2453,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,17 +2465,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2484,14 +2505,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2500,14 +2543,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2516,14 +2581,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.34</v>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2532,13 +2619,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3118,7 +3119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,17 +3130,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3149,14 +3170,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3165,14 +3208,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.36</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3181,14 +3246,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3197,14 +3284,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.34</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3213,13 +3322,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3783,7 +3784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3794,17 +3795,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3835,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.15</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3830,14 +3873,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89</v>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3846,14 +3911,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.36</v>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3862,14 +3949,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3878,14 +3987,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.34</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3894,13 +4025,563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4072</t>
+          <t>0.2170</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2624</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,12 +749,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001685</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深新价值股票</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -747,21 +764,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>97.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0524</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -884,32 +901,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -965,31 +982,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>96.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0219</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>517900</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>招商中证银行AH价格优选ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>96.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>016374</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1330,22 +1347,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4081</t>
+          <t>0.4072</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1368,22 +1385,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2525</t>
+          <t>0.2624</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1406,26 +1423,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.68</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1140</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1434,32 +1451,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1472,32 +1489,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0828</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1510,32 +1527,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1548,36 +1565,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0416</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1586,36 +1603,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1624,36 +1641,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1662,36 +1679,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1700,36 +1717,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1738,36 +1755,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.20</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1776,36 +1793,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001824</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时沪港深成长企业混合</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>85.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1814,36 +1831,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1852,36 +1869,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1905,17 +1922,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1994,22 +2011,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3337</t>
+          <t>0.4081</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2032,22 +2049,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1808</t>
+          <t>0.2525</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2060,36 +2077,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>001685</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>汇添富沪港深新价值股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>80.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0970</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2098,32 +2115,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0577</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2136,36 +2153,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0446</t>
+          <t>0.0828</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2174,36 +2191,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.86</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0595</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2222,26 +2239,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0371</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2260,22 +2277,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2298,22 +2315,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2326,36 +2343,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2364,36 +2381,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2412,22 +2429,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>85.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2440,36 +2457,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>001824</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>博时沪港深成长企业混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2478,27 +2495,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2507,7 +2524,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2516,32 +2533,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2564,22 +2581,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2592,6 +2609,670 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3217,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3727,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4194,7 +4875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01288-农业银行.xlsx
+++ b/数据整理/stocks/港股/01288-农业银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,430 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007108</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平 MSCI 香港价值增强指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1096,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2170</t>
+          <t>0.3262</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1050</t>
+          <t>0.1284</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.26</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0723</t>
+          <t>0.1202</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1200,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -835,22 +1248,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0371</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -863,36 +1276,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1314,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1352,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -977,32 +1390,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1015,36 +1428,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159726</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏恒生中国内地企业高股息率ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>96.48</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1466,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>517900</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商中证银行AH价格优选ETF</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>96.90</t>
+          <t>98.34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1504,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>513530</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>96.34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1542,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>517900</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>招商中证银行AH价格优选ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>98.38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1167,32 +1580,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1215,26 +1628,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1243,32 +1656,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>016374</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1337,32 +1750,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4072</t>
+          <t>0.2170</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1375,32 +1788,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2624</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1413,12 +1826,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001685</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深新价值股票</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1428,21 +1841,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>97.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1451,32 +1864,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0714</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1499,26 +1912,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0524</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1527,36 +1940,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1565,32 +1978,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1613,26 +2026,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1646,31 +2059,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1679,36 +2092,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>96.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0219</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1717,36 +2130,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>517900</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>招商中证银行AH价格优选ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>96.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1755,36 +2168,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1793,36 +2206,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1831,36 +2244,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1869,36 +2282,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1907,36 +2320,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>016374</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2011,22 +2424,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4081</t>
+          <t>0.4072</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2049,22 +2462,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2525</t>
+          <t>0.2624</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2087,26 +2500,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.68</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1140</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2115,32 +2528,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>0.0714</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2153,32 +2566,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0828</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2191,32 +2604,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0595</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2229,36 +2642,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0416</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2267,36 +2680,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2305,36 +2718,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2343,36 +2756,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2381,36 +2794,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2419,36 +2832,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.20</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0073</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2457,36 +2870,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001824</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时沪港深成长企业混合</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>85.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2495,36 +2908,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2533,36 +2946,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2586,17 +2999,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2675,22 +3088,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3337</t>
+          <t>0.4081</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2713,22 +3126,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.20</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1808</t>
+          <t>0.2525</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2741,36 +3154,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008407</t>
+          <t>001685</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+          <t>汇添富沪港深新价值股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>80.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0970</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2779,32 +3192,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0577</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2817,36 +3230,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0446</t>
+          <t>0.0828</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2855,36 +3268,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.86</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0595</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2903,26 +3316,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0371</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2941,22 +3354,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2979,22 +3392,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3007,36 +3420,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0133</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3045,36 +3458,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>008407</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -3093,22 +3506,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>85.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3121,36 +3534,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>001824</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>博时沪港深成长企业混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3159,27 +3572,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008408</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3188,7 +3601,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3197,32 +3610,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>008408</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3245,22 +3658,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3273,6 +3686,670 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海恒生沪深港通细分行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3898,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4408,7 +5485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4873,400 +5950,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3633</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3362</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0473</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007107</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007108</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>太平 MSCI 香港价值增强指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>